--- a/doc/메뉴 구조도 v1.1.xlsx
+++ b/doc/메뉴 구조도 v1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Developer\Project\dominoClone\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7328EBCC-E74A-447C-BE69-4AC0E546F7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612CF989-B2D1-4CBB-A185-5B0A987AEFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9072AD71-CAC9-4B92-8BB3-14F635348B3E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9072AD71-CAC9-4B92-8BB3-14F635348B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="111">
   <si>
     <t>화면명</t>
   </si>
@@ -459,6 +459,10 @@
   </si>
   <si>
     <t>조형신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행현황</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -619,13 +623,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -665,6 +678,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,17 +699,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F198FB1C-5DD4-4D80-A0D9-FFE02780FF10}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1018,46 +1040,50 @@
     <col min="6" max="7" width="16.5" style="1" customWidth="1"/>
     <col min="8" max="11" width="16.5" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="15" width="16.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="15" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1105,7 @@
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="16"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="4" t="s">
         <v>61</v>
       </c>
@@ -1089,8 +1115,9 @@
       <c r="O2" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P2" s="21"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1114,8 +1141,9 @@
       <c r="O3" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1139,8 +1167,9 @@
       <c r="O4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P4" s="22"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>84</v>
       </c>
@@ -1166,9 +1195,10 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="17" t="s">
+      <c r="P5" s="22"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1195,9 +1225,10 @@
       <c r="O6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="17"/>
+      <c r="P6" s="22"/>
+    </row>
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
         <v>106</v>
       </c>
@@ -1222,9 +1253,10 @@
       <c r="O7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="17"/>
+      <c r="P7" s="22"/>
+    </row>
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
@@ -1249,9 +1281,10 @@
       <c r="O8" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="17"/>
+      <c r="P8" s="22"/>
+    </row>
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1276,9 +1309,10 @@
       <c r="O9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="17"/>
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="13"/>
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
@@ -1303,9 +1337,10 @@
       <c r="O10" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="17"/>
+      <c r="P10" s="22"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
@@ -1330,9 +1365,10 @@
       <c r="O11" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="17"/>
+      <c r="P11" s="22"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
         <v>40</v>
       </c>
@@ -1357,9 +1393,10 @@
       <c r="O12" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="17"/>
+      <c r="P12" s="22"/>
+    </row>
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="13"/>
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -1386,9 +1423,10 @@
       <c r="O13" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="17"/>
+      <c r="P13" s="22"/>
+    </row>
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="13"/>
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1415,9 +1453,10 @@
       <c r="O14" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="17"/>
+      <c r="P14" s="22"/>
+    </row>
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="13"/>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1444,9 +1483,10 @@
       <c r="O15" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A16" s="17"/>
+      <c r="P15" s="22"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" s="13"/>
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1471,9 +1511,10 @@
       <c r="O16" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="17"/>
+      <c r="P16" s="22"/>
+    </row>
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="13"/>
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
@@ -1498,9 +1539,10 @@
       <c r="O17" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="17"/>
+      <c r="P17" s="22"/>
+    </row>
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="13"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -1525,9 +1567,10 @@
       <c r="O18" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="17"/>
+      <c r="P18" s="22"/>
+    </row>
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="13"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
@@ -1552,9 +1595,10 @@
       <c r="O19" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="17" t="s">
+      <c r="P19" s="22"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A20" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="2"/>
@@ -1579,9 +1623,10 @@
       <c r="O20" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="17"/>
+      <c r="P20" s="22"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A21" s="13"/>
       <c r="B21" s="2" t="s">
         <v>44</v>
       </c>
@@ -1606,9 +1651,10 @@
       <c r="O21" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="17"/>
+      <c r="P21" s="22"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A22" s="13"/>
       <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
@@ -1633,9 +1679,10 @@
       <c r="O22" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="17"/>
+      <c r="P22" s="22"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A23" s="13"/>
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1660,8 +1707,9 @@
       <c r="O23" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P23" s="22"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>85</v>
       </c>
@@ -1687,9 +1735,10 @@
         <v>16</v>
       </c>
       <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="18" t="s">
+      <c r="P24" s="22"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A25" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1716,9 +1765,10 @@
       </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="19"/>
+      <c r="P25" s="22"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A26" s="15"/>
       <c r="B26" s="6" t="s">
         <v>104</v>
       </c>
@@ -1745,9 +1795,10 @@
       </c>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="17" t="s">
+      <c r="P26" s="22"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A27" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="2"/>
@@ -1770,9 +1821,10 @@
       <c r="O27" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="17"/>
+      <c r="P27" s="22"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A28" s="13"/>
       <c r="B28" s="2" t="s">
         <v>80</v>
       </c>
@@ -1795,9 +1847,10 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="17" t="s">
+      <c r="P28" s="22"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A29" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1822,9 +1875,10 @@
       <c r="O29" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="17"/>
+      <c r="P29" s="22"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A30" s="13"/>
       <c r="B30" s="2" t="s">
         <v>20</v>
       </c>
@@ -1849,9 +1903,10 @@
       <c r="O30" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="17"/>
+      <c r="P30" s="22"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A31" s="13"/>
       <c r="B31" s="2" t="s">
         <v>20</v>
       </c>
@@ -1878,9 +1933,10 @@
       <c r="O31" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="17"/>
+      <c r="P31" s="22"/>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="13"/>
       <c r="B32" s="2" t="s">
         <v>20</v>
       </c>
@@ -1903,9 +1959,10 @@
       <c r="O32" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="17"/>
+      <c r="P32" s="22"/>
+    </row>
+    <row r="33" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="13"/>
       <c r="B33" s="2" t="s">
         <v>20</v>
       </c>
@@ -1930,9 +1987,10 @@
       <c r="O33" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="17"/>
+      <c r="P33" s="22"/>
+    </row>
+    <row r="34" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="13"/>
       <c r="B34" s="2" t="s">
         <v>20</v>
       </c>
@@ -1959,9 +2017,10 @@
       <c r="O34" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="17"/>
+      <c r="P34" s="22"/>
+    </row>
+    <row r="35" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="13"/>
       <c r="B35" s="2" t="s">
         <v>20</v>
       </c>
@@ -1986,9 +2045,10 @@
       <c r="O35" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="17"/>
+      <c r="P35" s="22"/>
+    </row>
+    <row r="36" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="13"/>
       <c r="B36" s="2" t="s">
         <v>20</v>
       </c>
@@ -2015,9 +2075,10 @@
       <c r="O36" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="17"/>
+      <c r="P36" s="22"/>
+    </row>
+    <row r="37" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="13"/>
       <c r="B37" s="2" t="s">
         <v>20</v>
       </c>
@@ -2040,9 +2101,10 @@
       <c r="O37" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="17"/>
+      <c r="P37" s="22"/>
+    </row>
+    <row r="38" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="13"/>
       <c r="B38" s="2" t="s">
         <v>20</v>
       </c>
@@ -2067,9 +2129,10 @@
       <c r="O38" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="17"/>
+      <c r="P38" s="22"/>
+    </row>
+    <row r="39" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="13"/>
       <c r="B39" s="2" t="s">
         <v>20</v>
       </c>
@@ -2096,9 +2159,10 @@
       <c r="O39" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="17"/>
+      <c r="P39" s="22"/>
+    </row>
+    <row r="40" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="13"/>
       <c r="B40" s="2" t="s">
         <v>20</v>
       </c>
@@ -2121,9 +2185,10 @@
       <c r="O40" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="17"/>
+      <c r="P40" s="22"/>
+    </row>
+    <row r="41" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="13"/>
       <c r="B41" s="2" t="s">
         <v>20</v>
       </c>
@@ -2148,9 +2213,10 @@
       <c r="O41" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="17"/>
+      <c r="P41" s="22"/>
+    </row>
+    <row r="42" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="13"/>
       <c r="B42" s="2" t="s">
         <v>20</v>
       </c>
@@ -2177,9 +2243,10 @@
       <c r="O42" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A43" s="17"/>
+      <c r="P42" s="22"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A43" s="13"/>
       <c r="B43" s="2" t="s">
         <v>27</v>
       </c>
@@ -2202,9 +2269,10 @@
       <c r="O43" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A44" s="17"/>
+      <c r="P43" s="22"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A44" s="13"/>
       <c r="B44" s="2" t="s">
         <v>27</v>
       </c>
@@ -2229,9 +2297,10 @@
       <c r="O44" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A45" s="17"/>
+      <c r="P44" s="22"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A45" s="13"/>
       <c r="B45" s="2" t="s">
         <v>28</v>
       </c>
@@ -2254,9 +2323,10 @@
       <c r="O45" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A46" s="17"/>
+      <c r="P45" s="22"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A46" s="13"/>
       <c r="B46" s="2" t="s">
         <v>28</v>
       </c>
@@ -2281,9 +2351,10 @@
       <c r="O46" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A47" s="17"/>
+      <c r="P46" s="22"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A47" s="13"/>
       <c r="B47" s="2" t="s">
         <v>28</v>
       </c>
@@ -2310,9 +2381,10 @@
       <c r="O47" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="17"/>
+      <c r="P47" s="22"/>
+    </row>
+    <row r="48" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="13"/>
       <c r="B48" s="11" t="s">
         <v>75</v>
       </c>
@@ -2335,8 +2407,9 @@
       </c>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P48" s="23"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>86</v>
       </c>
@@ -2360,8 +2433,9 @@
         <v>16</v>
       </c>
       <c r="O49" s="2"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P49" s="22"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>69</v>
       </c>
@@ -2385,9 +2459,10 @@
       <c r="O50" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A51" s="17" t="s">
+      <c r="P50" s="22"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A51" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2412,9 +2487,10 @@
       <c r="O51" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A52" s="17"/>
+      <c r="P51" s="22"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A52" s="13"/>
       <c r="B52" s="2" t="s">
         <v>72</v>
       </c>
@@ -2437,9 +2513,10 @@
       <c r="O52" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A53" s="17"/>
+      <c r="P52" s="22"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A53" s="13"/>
       <c r="B53" s="2" t="s">
         <v>73</v>
       </c>
@@ -2462,9 +2539,10 @@
       <c r="O53" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A54" s="17"/>
+      <c r="P53" s="22"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A54" s="13"/>
       <c r="B54" s="2" t="s">
         <v>76</v>
       </c>
@@ -2487,9 +2565,10 @@
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A55" s="17" t="s">
+      <c r="P54" s="22"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A55" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2514,9 +2593,10 @@
       <c r="O55" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A56" s="17"/>
+      <c r="P55" s="22"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A56" s="13"/>
       <c r="B56" s="2" t="s">
         <v>74</v>
       </c>
@@ -2539,9 +2619,10 @@
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A57" s="17"/>
+      <c r="P56" s="22"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A57" s="13"/>
       <c r="B57" s="2" t="s">
         <v>59</v>
       </c>
@@ -2564,9 +2645,10 @@
       <c r="O57" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A58" s="17"/>
+      <c r="P57" s="22"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A58" s="13"/>
       <c r="B58" s="2" t="s">
         <v>66</v>
       </c>
@@ -2589,9 +2671,10 @@
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A59" s="17" t="s">
+      <c r="P58" s="22"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A59" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -2616,9 +2699,10 @@
       <c r="O59" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A60" s="17"/>
+      <c r="P59" s="22"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A60" s="13"/>
       <c r="B60" s="2" t="s">
         <v>67</v>
       </c>
@@ -2641,9 +2725,10 @@
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A61" s="17"/>
+      <c r="P60" s="22"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A61" s="13"/>
       <c r="B61" s="2" t="s">
         <v>60</v>
       </c>
@@ -2666,9 +2751,10 @@
       <c r="O61" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A62" s="17"/>
+      <c r="P61" s="22"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A62" s="13"/>
       <c r="B62" s="2" t="s">
         <v>68</v>
       </c>
@@ -2691,9 +2777,19 @@
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
+      <c r="P62" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="A51:A54"/>
     <mergeCell ref="A55:A58"/>
     <mergeCell ref="A59:A62"/>
@@ -2702,14 +2798,6 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A48"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/메뉴 구조도 v1.1.xlsx
+++ b/doc/메뉴 구조도 v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Developer\Project\dominoClone\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612CF989-B2D1-4CBB-A185-5B0A987AEFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52136B9-4C1D-4218-AA7E-D4A54D445351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9072AD71-CAC9-4B92-8BB3-14F635348B3E}"/>
   </bookViews>
@@ -638,7 +638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,6 +710,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,7 +1034,7 @@
   <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1225,7 +1231,9 @@
       <c r="O6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="22"/>
+      <c r="P6" s="25">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="13"/>
@@ -1393,7 +1401,9 @@
       <c r="O12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="22"/>
+      <c r="P12" s="24">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="13"/>
